--- a/projeto/feedbacks.xlsx
+++ b/projeto/feedbacks.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,13 +28,23 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000000FF"/>
+        <bgColor rgb="000000FF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +65,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,126 +439,52 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Projeto</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Feedback</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Sugestão</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>employee_id</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>feedback</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>suggestion</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2024-08-21</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Ola, mundo!</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2024-08-21</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2024-08-21</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Ola, mundo</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2024-08-21</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Ola ola</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-23</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Ola mundo!</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Ola mundo!</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
